--- a/寄存器属性及其端口.xlsx
+++ b/寄存器属性及其端口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IC\scripts\reg_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8D2B77-625B-4554-A935-BEE52FDAC086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B9AE0-79A2-4E37-8199-E838E80FE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,9 +57,6 @@
   <si>
     <t>RW</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Y</t>
@@ -499,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -544,11 +541,9 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -558,10 +553,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -572,14 +567,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -588,30 +583,30 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -620,82 +615,82 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -704,15 +699,15 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -720,14 +715,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -736,31 +731,31 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -768,47 +763,47 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -818,11 +813,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -832,14 +827,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -848,11 +843,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -862,11 +857,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -876,38 +871,38 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">

--- a/寄存器属性及其端口.xlsx
+++ b/寄存器属性及其端口.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IC\scripts\reg_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B9AE0-79A2-4E37-8199-E838E80FE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD2F58-67B8-4B3E-88E1-8EA18201897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,26 @@
   </si>
   <si>
     <t>RSHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pluse_o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,12 +526,12 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="6" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,13 +551,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,8 +573,9 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -564,8 +588,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -580,8 +605,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,8 +622,9 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -612,8 +639,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -628,8 +656,9 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -646,8 +675,9 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -664,8 +694,9 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -680,8 +711,9 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -696,8 +728,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -712,8 +745,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -728,8 +762,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -744,8 +779,9 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -760,8 +796,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -778,8 +815,9 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -796,8 +834,9 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -810,8 +849,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -824,8 +864,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -840,8 +881,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -854,8 +896,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -868,8 +911,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -880,14 +924,15 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -898,57 +943,82 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:H28" xr:uid="{FB35CE98-3667-4F34-B70E-72909615DB2B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:I28" xr:uid="{FB35CE98-3667-4F34-B70E-72909615DB2B}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
